--- a/upfiles/jxc.xlsx
+++ b/upfiles/jxc.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="库存报表" sheetId="1" r:id="rId1"/>
     <sheet name="进出库明细" sheetId="9" r:id="rId2"/>
     <sheet name="单据打印模板" sheetId="10" r:id="rId3"/>
-    <sheet name="期初库存" sheetId="8" r:id="rId4"/>
-    <sheet name="配置" sheetId="5" r:id="rId5"/>
+    <sheet name="配置说明" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">进出库明细!$A$2:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">进出库明细!$A$2:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">单据打印模板!$A:$G</definedName>
-    <definedName name="进出库类型">配置!$C$6:$C$11</definedName>
+    <definedName name="进出库类型">配置说明!$C$6:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>系统配置项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,19 +44,193 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>配置项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>货品编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>货品名称及规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>期初数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>配置项目</t>
+    <t>本期收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期发出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结存数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>创维电视 55寸 黑色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创维电视 65寸 黑色互动版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力空调 2匹挂式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机+室外机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为手机 P50 8+128G 太空灰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想电脑 Y999 魅力蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出库明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出库类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库</t>
+  </si>
+  <si>
+    <t>采购入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货</t>
+  </si>
+  <si>
+    <t>采购退货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售出库</t>
+  </si>
+  <si>
+    <t>销售出库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售退货</t>
+  </si>
+  <si>
+    <t>销售退货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他入库</t>
+  </si>
+  <si>
+    <t>其他入库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他出库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>货品编码</t>
+  </si>
+  <si>
+    <t>进出库类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘盈调账</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -69,19 +242,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>期初数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本期发出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结存数量</t>
+    <t>数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -89,286 +250,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>P001</t>
+    <t>装箱明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核：                  发货人：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合         计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库盘点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进仓正数：采购进仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓正数：销售出库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进仓负数：采购退货（退给供应商）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓负数：销售退货（客户退回来）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“进出明细”内新增一个单号，确定“进出库类型”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据副标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州XXXX科技建设有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请把一张单的数据，保存在相邻的行，不要跳行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件操作：使用说明</t>
+  </si>
+  <si>
+    <t>左边的内容不要动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格内包含公式，未使用宏，Excel2010/WPS可通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为不影响公式计算，不建议随意插入列，可以备注列后追加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出明细：注意数量方向，以及正负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据打印：在“单据打印模板”J3单元格内输入单据号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化：在“库存报表”里录入货品信息，在“进出库明细”内录入期初库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初库存</t>
+  </si>
+  <si>
+    <t>期初库存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P003</t>
-  </si>
-  <si>
-    <t>P004</t>
-  </si>
-  <si>
-    <t>P005</t>
-  </si>
-  <si>
-    <t>创维电视 55寸 黑色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创维电视 65寸 黑色互动版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格力空调 2匹挂式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机+室外机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为手机 P50 8+128G 太空灰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想电脑 Y999 魅力蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进出库明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期初库存数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进出库类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购入库</t>
-  </si>
-  <si>
-    <t>采购入库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购退货</t>
-  </si>
-  <si>
-    <t>采购退货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售出库</t>
-  </si>
-  <si>
-    <t>销售出库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售退货</t>
-  </si>
-  <si>
-    <t>销售退货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他入库</t>
-  </si>
-  <si>
-    <t>其他入库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他出库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货品编码</t>
-  </si>
-  <si>
-    <t>进出库类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘盈调账</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货品名称及规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装箱明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货品编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核：                  发货人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合         计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库盘点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、表格内包含公式，未使用宏，Excel2010/WPS可通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、为不影响公式计算，不建议随意插入列，可以备注列后追加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、全部产品信息按“库存报表”内为准，新增资料请在此表内添加，保持编码唯一不可重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、单据打印模板内公式复杂，不建议新手随意更改格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进仓正数：采购进仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓正数：销售出库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进仓负数：采购退货（退给供应商）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓负数：销售退货（客户退回来）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有资料的先在“库存报表”内添加货品信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“进出明细”内新增一个单号，确定“进出库类型”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入单位、日期、货品编码、数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、单据打印：在“单据打印模板”J3单元格内输入单据号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>制单人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据副标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州XXXX科技建设有限公司</t>
+  </si>
+  <si>
+    <t>期初库存录入时：对接单位应为“期初库存”，以便统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>8、所有的汇总数据、统计报表，都是来源于原始数据的应用，</t>
+      <t>各表内的公式请直接下拉复制，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单据打印模板内公式复杂，不建议新手随意更改格式</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个货品的进出明细：在“进出明细”对货品代码进行筛选即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：广东省广州市建设路XX号  电话：139-8888-6666(微信同号)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账：在“进出明细”里的“对接单位”进行筛选（以前做明细时的单位名称要统一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出日报表：对“进出明细”进行数据透视，并进行日期的筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最畅销排名：对“库存报表”进行数据透视，并对出库数量排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有的汇总数据、统计报表，都是来源于原始数据的应用，</t>
     </r>
     <r>
       <rPr>
@@ -379,7 +412,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>各种图表超炫效果只是智商税</t>
+      <t>各种报表超炫效果只是智商税</t>
     </r>
     <r>
       <rPr>
@@ -395,22 +428,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5、日常记账：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、进出明细：注意数量方向，以及正负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请把一张单的数据，保存在相邻的行，不要跳行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件操作：使用说明</t>
-  </si>
-  <si>
-    <t>地址：广东省广州市建设路XX号    电话：139-8888-6666(微信同号)</t>
+    <t>日常记账：没有资料的先在“库存报表”内添加货品信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进仓数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入单位、日期、货品编码、数量（注意进出方向、正负数量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部货品信息按“库存报表”内为准，新增资料请在此表内添加，保持编码唯一不可重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据打印模板内公式复杂，不建议新手随意更改格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +560,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -613,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -728,6 +789,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -890,78 +960,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66664</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1001839</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>568573</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="虚尾箭头 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="66664" y="28573"/>
-          <a:ext cx="1440000" cy="540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="stripedRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>返   回   首   页</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -1323,9 +1321,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1339,7 +1337,7 @@
     <row r="1" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="str">
-        <f>配置!C3&amp;"  库存报表"</f>
+        <f>配置说明!C3&amp;"  库存报表"</f>
         <v>广州XXXX科技建设有限公司  库存报表</v>
       </c>
       <c r="C1" s="2"/>
@@ -1350,46 +1348,46 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3">
-        <f>SUMIF(期初库存!B:B,A3,期初库存!E:E)</f>
-        <v>5</v>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A3)</f>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <f>SUMIF(进出库明细!D:D,A3,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A3)</f>
         <v>8</v>
       </c>
       <c r="F3" s="3">
@@ -1398,25 +1396,25 @@
       </c>
       <c r="G3" s="3">
         <f>D3+E3-F3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
-        <f>SUMIF(期初库存!B:B,A4,期初库存!E:E)</f>
-        <v>0</v>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A4)</f>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
-        <f>SUMIF(进出库明细!D:D,A4,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A4)</f>
         <v>8</v>
       </c>
       <c r="F4" s="3">
@@ -1425,25 +1423,25 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G19" si="0">D4+E4-F4</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
-        <f>SUMIF(期初库存!B:B,A5,期初库存!E:E)</f>
-        <v>20</v>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A5)</f>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
-        <f>SUMIF(进出库明细!D:D,A5,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A5)</f>
         <v>19</v>
       </c>
       <c r="F5" s="3">
@@ -1452,28 +1450,28 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
-        <f>SUMIF(期初库存!B:B,A6,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <f>SUMIF(进出库明细!D:D,A6,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="3">
@@ -1487,20 +1485,20 @@
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
-        <f>SUMIF(期初库存!B:B,A7,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f>SUMIF(进出库明细!D:D,A7,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
@@ -1514,11 +1512,11 @@
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="3">
-        <f>SUMIF(期初库存!B:B,A8,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f>SUMIF(进出库明细!D:D,A8,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -1532,11 +1530,11 @@
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="3">
-        <f>SUMIF(期初库存!B:B,A9,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <f>SUMIF(进出库明细!D:D,A9,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A9)</f>
         <v>0</v>
       </c>
       <c r="F9" s="3">
@@ -1550,11 +1548,11 @@
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="3">
-        <f>SUMIF(期初库存!B:B,A10,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f>SUMIF(进出库明细!D:D,A10,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="3">
@@ -1568,11 +1566,11 @@
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="3">
-        <f>SUMIF(期初库存!B:B,A11,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <f>SUMIF(进出库明细!D:D,A11,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="3">
@@ -1586,11 +1584,11 @@
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="3">
-        <f>SUMIF(期初库存!B:B,A12,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f>SUMIF(进出库明细!D:D,A12,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="3">
@@ -1604,11 +1602,11 @@
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="3">
-        <f>SUMIF(期初库存!B:B,A13,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f>SUMIF(进出库明细!D:D,A13,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="3">
@@ -1622,11 +1620,11 @@
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="3">
-        <f>SUMIF(期初库存!B:B,A14,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <f>SUMIF(进出库明细!D:D,A14,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="3">
@@ -1640,11 +1638,11 @@
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="3">
-        <f>SUMIF(期初库存!B:B,A15,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f>SUMIF(进出库明细!D:D,A15,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="3">
@@ -1658,11 +1656,11 @@
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="3">
-        <f>SUMIF(期初库存!B:B,A16,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f>SUMIF(进出库明细!D:D,A16,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="3">
@@ -1676,11 +1674,11 @@
     </row>
     <row r="17" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="3">
-        <f>SUMIF(期初库存!B:B,A17,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A17)</f>
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f>SUMIF(进出库明细!D:D,A17,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="3">
@@ -1694,11 +1692,11 @@
     </row>
     <row r="18" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="3">
-        <f>SUMIF(期初库存!B:B,A18,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A18)</f>
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <f>SUMIF(进出库明细!D:D,A18,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="3">
@@ -1712,11 +1710,11 @@
     </row>
     <row r="19" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="3">
-        <f>SUMIF(期初库存!B:B,A19,期初库存!E:E)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"期初库存",进出库明细!D:D,A19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f>SUMIF(进出库明细!D:D,A19,进出库明细!G:G)</f>
+        <f>SUMIFS(进出库明细!G:G,进出库明细!B:B,"&lt;&gt;期初库存",进出库明细!D:D,A19)</f>
         <v>0</v>
       </c>
       <c r="F19" s="3">
@@ -1737,10 +1735,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1762,7 +1760,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="2"/>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1770,31 +1768,31 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>4</v>
@@ -1805,13 +1803,13 @@
         <v>2109001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9">
         <v>44440</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>VLOOKUP(D3,库存报表!A:B,2,0)</f>
@@ -1825,7 +1823,10 @@
         <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1833,13 +1834,13 @@
         <v>2109001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9">
         <v>44440</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>VLOOKUP(D4,库存报表!A:B,2,0)</f>
@@ -1850,10 +1851,13 @@
         <v>台</v>
       </c>
       <c r="G4" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1861,13 +1865,13 @@
         <v>2109001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9">
         <v>44440</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>VLOOKUP(D5,库存报表!A:B,2,0)</f>
@@ -1878,10 +1882,13 @@
         <v>组</v>
       </c>
       <c r="G5" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1889,13 +1896,13 @@
         <v>2109002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9">
-        <v>44444</v>
+        <v>44440</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="6" t="str">
         <f>VLOOKUP(D6,库存报表!A:B,2,0)</f>
@@ -1905,11 +1912,11 @@
         <f>VLOOKUP(D6,库存报表!A:C,3,0)</f>
         <v>台</v>
       </c>
-      <c r="H6" s="3">
-        <v>10</v>
+      <c r="G6" s="3">
+        <v>8</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1917,41 +1924,41 @@
         <v>2109002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9">
-        <v>44444</v>
+        <v>44440</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>VLOOKUP(D7,库存报表!A:B,2,0)</f>
-        <v>格力空调 2匹挂式</v>
+        <v>创维电视 65寸 黑色互动版</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>VLOOKUP(D7,库存报表!A:C,3,0)</f>
-        <v>组</v>
-      </c>
-      <c r="H7" s="3">
-        <v>30</v>
+        <v>台</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>2109003</v>
+        <v>2109002</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9">
-        <v>44447</v>
+        <v>44440</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>VLOOKUP(D8,库存报表!A:B,2,0)</f>
@@ -1961,53 +1968,53 @@
         <f>VLOOKUP(D8,库存报表!A:C,3,0)</f>
         <v>组</v>
       </c>
-      <c r="H8" s="3">
-        <v>-3</v>
+      <c r="G8" s="3">
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>2109004</v>
+        <v>2109003</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9">
-        <v>44448</v>
+        <v>44444</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>VLOOKUP(D9,库存报表!A:B,2,0)</f>
-        <v>格力空调 2匹挂式</v>
+        <v>创维电视 55寸 黑色</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>VLOOKUP(D9,库存报表!A:C,3,0)</f>
-        <v>组</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-2</v>
+        <v>台</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>2109005</v>
+        <v>2109003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9">
-        <v>44449</v>
+        <v>44444</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>VLOOKUP(D10,库存报表!A:B,2,0)</f>
@@ -2017,44 +2024,98 @@
         <f>VLOOKUP(D10,库存报表!A:C,3,0)</f>
         <v>组</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2109004</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44447</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f>VLOOKUP(D11,库存报表!A:B,2,0)</f>
+        <v>格力空调 2匹挂式</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>VLOOKUP(D11,库存报表!A:C,3,0)</f>
+        <v>组</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2109005</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44448</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>VLOOKUP(D12,库存报表!A:B,2,0)</f>
+        <v>格力空调 2匹挂式</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>VLOOKUP(D12,库存报表!A:C,3,0)</f>
+        <v>组</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2109006</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44449</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>VLOOKUP(D13,库存报表!A:B,2,0)</f>
+        <v>格力空调 2匹挂式</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>VLOOKUP(D13,库存报表!A:C,3,0)</f>
+        <v>组</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="6" t="e">
-        <f>VLOOKUP(D11,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="3" t="e">
-        <f>VLOOKUP(D11,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="6" t="e">
-        <f>VLOOKUP(D12,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="3" t="e">
-        <f>VLOOKUP(D12,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="6" t="e">
-        <f>VLOOKUP(D13,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="3" t="e">
-        <f>VLOOKUP(D13,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2217,8 +2278,38 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="30" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="6" t="e">
+        <f>VLOOKUP(D30,库存报表!A:B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="3" t="e">
+        <f>VLOOKUP(D30,库存报表!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="6" t="e">
+        <f>VLOOKUP(D31,库存报表!A:B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="3" t="e">
+        <f>VLOOKUP(D31,库存报表!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="6" t="e">
+        <f>VLOOKUP(D32,库存报表!A:B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="3" t="e">
+        <f>VLOOKUP(D32,库存报表!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J29"/>
+  <autoFilter ref="A2:J32"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
@@ -2237,7 +2328,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2254,42 +2345,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="str">
-        <f>配置!C3</f>
+      <c r="A1" s="28" t="str">
+        <f>配置说明!C3</f>
         <v>广州XXXX科技建设有限公司</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:10" s="27" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="str">
-        <f>配置!C4</f>
-        <v>地址：广东省广州市建设路XX号    电话：139-8888-6666(微信同号)</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="26"/>
+    <row r="2" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="str">
+        <f>配置说明!C4</f>
+        <v>地址：广东省广州市建设路XX号  电话：139-8888-6666(微信同号)</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="str">
+      <c r="A3" s="29" t="str">
         <f>VLOOKUP(J4,进出库明细!A:I,9,0)&amp;"单"</f>
         <v>采购入库单</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="18"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2309,52 +2400,55 @@
       </c>
       <c r="G4" s="17" t="str">
         <f>"№："&amp;TEXT(J4,"0000000")&amp;" "</f>
-        <v xml:space="preserve">№：2109001 </v>
+        <v xml:space="preserve">№：2109002 </v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J4" s="14">
-        <v>2109001</v>
+        <v>2109002</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H5" s="19"/>
+      <c r="I5" s="38" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
-        <f>ROW()-4</f>
-        <v>2</v>
+        <f>ROW()-5</f>
+        <v>1</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
-        <v>P002</v>
+        <v>P001</v>
       </c>
       <c r="C6" s="12" t="str">
         <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A6=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
-        <v>创维电视 65寸 黑色互动版</v>
+        <v>创维电视 55寸 黑色</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
@@ -2373,24 +2467,24 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
-        <f t="shared" ref="A7:A14" si="0">ROW()-4</f>
-        <v>3</v>
+        <f t="shared" ref="A7:A14" si="0">ROW()-5</f>
+        <v>2</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
-        <v>P003</v>
+        <v>P002</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A7=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
-        <v>格力空调 2匹挂式</v>
+        <v>创维电视 65寸 黑色互动版</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
-        <v>组</v>
+        <v>台</v>
       </c>
       <c r="E7" s="11">
         <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))))</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23">
@@ -2402,35 +2496,35 @@
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="11" t="str">
         <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
-        <v/>
+        <v>P003</v>
       </c>
       <c r="C8" s="12" t="str">
         <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A8=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
-        <v xml:space="preserve">  以  下  空  白</v>
+        <v>格力空调 2匹挂式</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
-        <v/>
-      </c>
-      <c r="E8" s="11" t="str">
+        <v>组</v>
+      </c>
+      <c r="E8" s="11">
         <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))))</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="23">
         <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="11" t="str">
         <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
@@ -2438,7 +2532,7 @@
       </c>
       <c r="C9" s="12" t="str">
         <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A9=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
-        <v/>
+        <v xml:space="preserve">  以  下  空  白</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
@@ -2458,7 +2552,7 @@
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="11" t="str">
         <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))</f>
@@ -2486,7 +2580,7 @@
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="11" t="str">
         <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))</f>
@@ -2514,7 +2608,7 @@
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="11" t="str">
         <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))</f>
@@ -2542,7 +2636,7 @@
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="11" t="str">
         <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))</f>
@@ -2570,7 +2664,7 @@
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="11" t="str">
         <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))</f>
@@ -2596,30 +2690,30 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34">
+      <c r="A15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33">
         <f>SUM(E6:E14)</f>
-        <v>28</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="str">
-        <f>"制单："&amp;配置!C5</f>
+        <f>"制单："&amp;配置说明!C5</f>
         <v>制单：Admin</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2640,329 +2734,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F18"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="str">
-        <f>VLOOKUP(B3,库存报表!A:B,2,0)</f>
-        <v>创维电视 55寸 黑色</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>VLOOKUP(B3,库存报表!A:C,3,0)</f>
-        <v>台</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <f>ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="str">
-        <f>VLOOKUP(B4,库存报表!A:B,2,0)</f>
-        <v>创维电视 55寸 黑色</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>VLOOKUP(B4,库存报表!A:C,3,0)</f>
-        <v>台</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <f t="shared" ref="A5:A18" si="0">ROW()-2</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f>VLOOKUP(B5,库存报表!A:B,2,0)</f>
-        <v>格力空调 2匹挂式</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>VLOOKUP(B5,库存报表!A:C,3,0)</f>
-        <v>组</v>
-      </c>
-      <c r="E5" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f>VLOOKUP(B6,库存报表!A:B,2,0)</f>
-        <v>华为手机 P50 8+128G 太空灰</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f>VLOOKUP(B6,库存报表!A:C,3,0)</f>
-        <v>个</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f>VLOOKUP(B7,库存报表!A:B,2,0)</f>
-        <v>联想电脑 Y999 魅力蓝</v>
-      </c>
-      <c r="D7" s="3" t="str">
-        <f>VLOOKUP(B7,库存报表!A:C,3,0)</f>
-        <v>PCS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="e">
-        <f>VLOOKUP(B8,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="3" t="e">
-        <f>VLOOKUP(B8,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="e">
-        <f>VLOOKUP(B9,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="3" t="e">
-        <f>VLOOKUP(B9,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="e">
-        <f>VLOOKUP(B10,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="3" t="e">
-        <f>VLOOKUP(B10,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="e">
-        <f>VLOOKUP(B11,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="3" t="e">
-        <f>VLOOKUP(B11,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="e">
-        <f>VLOOKUP(B12,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="3" t="e">
-        <f>VLOOKUP(B12,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="e">
-        <f>VLOOKUP(B13,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="3" t="e">
-        <f>VLOOKUP(B13,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="e">
-        <f>VLOOKUP(B14,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="3" t="e">
-        <f>VLOOKUP(B14,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="e">
-        <f>VLOOKUP(B15,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="3" t="e">
-        <f>VLOOKUP(B15,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="e">
-        <f>VLOOKUP(B16,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="3" t="e">
-        <f>VLOOKUP(B16,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="e">
-        <f>VLOOKUP(B17,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="3" t="e">
-        <f>VLOOKUP(B17,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="e">
-        <f>VLOOKUP(B18,库存报表!A:B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="3" t="e">
-        <f>VLOOKUP(B18,库存报表!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="274" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C43"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2971,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2983,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2995,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3007,22 +2797,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <f t="shared" ref="A6:A43" si="0">ROW()-2</f>
+        <f t="shared" ref="A6:A40" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3031,10 +2821,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3043,10 +2833,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3055,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3067,10 +2857,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3079,10 +2869,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3091,19 +2881,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3111,15 +2905,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>71</v>
+      <c r="B16" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3127,31 +2923,34 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>72</v>
-      </c>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>73</v>
+      <c r="B20" s="24"/>
+      <c r="C20" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3159,15 +2958,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>74</v>
+      <c r="B22" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3175,18 +2974,19 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>79</v>
+      <c r="B24" s="24"/>
+      <c r="C24" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3194,9 +2994,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
+      <c r="B25" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3204,9 +3003,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="3" t="s">
-        <v>81</v>
+      <c r="B26" s="24"/>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3214,15 +3013,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>90</v>
+      <c r="B28" s="24"/>
+      <c r="C28" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3230,9 +3033,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="3" t="s">
-        <v>75</v>
+      <c r="B29" s="24"/>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3240,9 +3043,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
+      <c r="B30" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3250,8 +3052,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3260,9 +3062,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="3" t="s">
-        <v>78</v>
+      <c r="B32" s="24"/>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3270,15 +3072,15 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>82</v>
+      <c r="B34" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3286,9 +3088,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
+      <c r="C35" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3296,15 +3097,17 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="C36" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>88</v>
+      <c r="C37" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3312,6 +3115,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="C38" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
@@ -3323,24 +3129,6 @@
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/upfiles/jxc.xlsx
+++ b/upfiles/jxc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="20730" windowHeight="11760" activeTab="3"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">单据打印模板!$A:$G</definedName>
     <definedName name="进出库类型">配置说明!$C$6:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -258,10 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单据号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收货人：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,10 +319,6 @@
   </si>
   <si>
     <t>文件操作：使用说明</t>
-  </si>
-  <si>
-    <t>左边的内容不要动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表格内包含公式，未使用宏，Excel2010/WPS可通用</t>
@@ -449,6 +441,13 @@
   </si>
   <si>
     <t>单据打印模板内公式复杂，不建议新手随意更改格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边的内容不要动</t>
+  </si>
+  <si>
+    <t>在下面录入单据号：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -720,9 +719,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,6 +759,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,14 +792,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1323,15 +1322,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="3" customWidth="1"/>
     <col min="4" max="7" width="11.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -1738,11 +1739,11 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
@@ -1752,6 +1753,8 @@
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="8" width="10.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -1786,10 +1789,10 @@
         <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>49</v>
@@ -1803,7 +1806,7 @@
         <v>2109001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9">
         <v>44440</v>
@@ -1826,7 +1829,7 @@
         <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1834,13 +1837,13 @@
         <v>2109001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9">
         <v>44440</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>VLOOKUP(D4,库存报表!A:B,2,0)</f>
@@ -1857,7 +1860,7 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,7 +1868,7 @@
         <v>2109001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9">
         <v>44440</v>
@@ -1888,7 +1891,7 @@
         <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,7 +2095,7 @@
         <v>2109006</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="9">
         <v>44449</v>
@@ -2328,10 +2331,10 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
@@ -2341,76 +2344,78 @@
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="11" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="str">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="str">
         <f>配置说明!C3</f>
         <v>广州XXXX科技建设有限公司</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="str">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="str">
         <f>配置说明!C4</f>
         <v>地址：广东省广州市建设路XX号  电话：139-8888-6666(微信同号)</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="str">
-        <f>VLOOKUP(J4,进出库明细!A:I,9,0)&amp;"单"</f>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="str">
+        <f>VLOOKUP(I4,进出库明细!A:I,9,0)&amp;"单"</f>
         <v>采购入库单</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="str">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="str">
         <f>"单位："</f>
         <v>单位：</v>
       </c>
       <c r="B4" s="6" t="str">
-        <f>VLOOKUP(J4,进出库明细!A:B,2,0)</f>
+        <f>VLOOKUP(I4,进出库明细!A:B,2,0)</f>
         <v>供应商1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>"日期："&amp;TEXT(VLOOKUP(J4,进出库明细!A:C,3,0),"yyyy年m月d日")</f>
+        <f>"日期："&amp;TEXT(VLOOKUP(I4,进出库明细!A:C,3,0),"yyyy年m月d日")</f>
         <v>日期：2021年9月1日</v>
       </c>
-      <c r="G4" s="17" t="str">
-        <f>"№："&amp;TEXT(J4,"0000000")&amp;" "</f>
+      <c r="G4" s="16" t="str">
+        <f>"№："&amp;TEXT(I4,"0000000")&amp;" "</f>
         <v xml:space="preserve">№：2109002 </v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="H4" s="16"/>
+      <c r="I4" s="39">
         <v>2109002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>54</v>
       </c>
@@ -2432,288 +2437,285 @@
       <c r="G5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
+        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1))</f>
         <v>P001</v>
       </c>
       <c r="C6" s="12" t="str">
-        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A6=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
+        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A6=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1))</f>
         <v>创维电视 55寸 黑色</v>
       </c>
       <c r="D6" s="11" t="str">
-        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
+        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1))</f>
         <v>台</v>
       </c>
       <c r="E6" s="11">
-        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))))</f>
+        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1))))</f>
         <v>8</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23">
-        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A6-1,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="str">
+        <f>IF($A6&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A6-1,1)&amp;"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <f t="shared" ref="A7:A14" si="0">ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
+        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1))</f>
         <v>P002</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A7=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
+        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A7=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1))</f>
         <v>创维电视 65寸 黑色互动版</v>
       </c>
       <c r="D7" s="11" t="str">
-        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
+        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1))</f>
         <v>台</v>
       </c>
       <c r="E7" s="11">
-        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))))</f>
+        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1))))</f>
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23">
-        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A7-1,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="str">
+        <f>IF($A7&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A7-1,1)&amp;"")</f>
+        <v/>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
+        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1))</f>
         <v>P003</v>
       </c>
       <c r="C8" s="12" t="str">
-        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A8=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
+        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A8=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1))</f>
         <v>格力空调 2匹挂式</v>
       </c>
       <c r="D8" s="11" t="str">
-        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
+        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1))</f>
         <v>组</v>
       </c>
       <c r="E8" s="11">
-        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))))</f>
+        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1))))</f>
         <v>20</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
-        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A8-1,1))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="str">
+        <f>IF($A8&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A8-1,1)&amp;"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
+        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1))</f>
         <v/>
       </c>
       <c r="C9" s="12" t="str">
-        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A9=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
+        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A9=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1))</f>
         <v xml:space="preserve">  以  下  空  白</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
+        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1))</f>
         <v/>
       </c>
       <c r="E9" s="11" t="str">
-        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))))</f>
+        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1))))</f>
         <v/>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23" t="str">
-        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A9-1,1))</f>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="str">
+        <f>IF($A9&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A9-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))</f>
+        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1))</f>
         <v/>
       </c>
       <c r="C10" s="12" t="str">
-        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A10=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))</f>
+        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A10=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1))</f>
         <v/>
       </c>
       <c r="D10" s="11" t="str">
-        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))</f>
+        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1))</f>
         <v/>
       </c>
       <c r="E10" s="11" t="str">
-        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))))</f>
+        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1))))</f>
         <v/>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23" t="str">
-        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A10-1,1))</f>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="str">
+        <f>IF($A10&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A10-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))</f>
+        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1))</f>
         <v/>
       </c>
       <c r="C11" s="12" t="str">
-        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A11=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))</f>
+        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A11=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1))</f>
         <v/>
       </c>
       <c r="D11" s="11" t="str">
-        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))</f>
+        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1))</f>
         <v/>
       </c>
       <c r="E11" s="11" t="str">
-        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))))</f>
+        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1))))</f>
         <v/>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23" t="str">
-        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A11-1,1))</f>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="str">
+        <f>IF($A11&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A11-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))</f>
+        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1))</f>
         <v/>
       </c>
       <c r="C12" s="12" t="str">
-        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A12=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))</f>
+        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A12=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1))</f>
         <v/>
       </c>
       <c r="D12" s="11" t="str">
-        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))</f>
+        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1))</f>
         <v/>
       </c>
       <c r="E12" s="11" t="str">
-        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))))</f>
+        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1))))</f>
         <v/>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23" t="str">
-        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A12-1,1))</f>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="str">
+        <f>IF($A12&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A12-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))</f>
+        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1))</f>
         <v/>
       </c>
       <c r="C13" s="12" t="str">
-        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A13=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))</f>
+        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A13=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1))</f>
         <v/>
       </c>
       <c r="D13" s="11" t="str">
-        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))</f>
+        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1))</f>
         <v/>
       </c>
       <c r="E13" s="11" t="str">
-        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))))</f>
+        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1))))</f>
         <v/>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="str">
-        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A13-1,1))</f>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="str">
+        <f>IF($A13&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A13-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!D:D,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))</f>
+        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!D:D,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1))</f>
         <v/>
       </c>
       <c r="C14" s="12" t="str">
-        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),IF($A14=COUNTIF(进出库明细!A:A,$J$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))</f>
+        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$I$4),IF($A14=COUNTIF(进出库明细!A:A,$I$4)+1,"  以  下  空  白",""),INDEX(进出库明细!E:E,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1))</f>
         <v/>
       </c>
       <c r="D14" s="11" t="str">
-        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!F:F,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))</f>
+        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!F:F,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1))</f>
         <v/>
       </c>
       <c r="E14" s="11" t="str">
-        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1)="",INDEX(进出库明细!H:H,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1),INDEX(进出库明细!G:G,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))))</f>
+        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$I$4),"",ABS(IF(INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1)="",INDEX(进出库明细!H:H,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1),INDEX(进出库明细!G:G,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1))))</f>
         <v/>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="str">
-        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$J$4),"",INDEX(进出库明细!J:J,MATCH($J$4,进出库明细!A:A,0)+$A14-1,1))</f>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="str">
+        <f>IF($A14&gt;COUNTIF(进出库明细!A:A,$I$4),"",INDEX(进出库明细!J:J,MATCH($I$4,进出库明细!A:A,0)+$A14-1,1)&amp;"")</f>
         <v/>
       </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34">
         <f>SUM(E6:E14)</f>
         <v>36</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="str">
         <f>"制单："&amp;配置说明!C5</f>
         <v>制单：Admin</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2738,15 +2740,17 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="21" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25" style="6" customWidth="1"/>
+    <col min="4" max="11" width="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -2773,10 +2777,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2785,10 +2789,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2886,18 +2890,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="37"/>
+      <c r="B13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>79</v>
+      <c r="B14" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2905,8 +2909,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>80</v>
+      <c r="B15" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2914,8 +2918,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>99</v>
+      <c r="B16" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2923,8 +2927,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>88</v>
+      <c r="B17" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2932,15 +2936,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>83</v>
+      <c r="B19" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2948,9 +2952,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2958,15 +2962,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>95</v>
+      <c r="B22" s="23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2974,9 +2978,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2984,9 +2988,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2994,8 +2998,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>81</v>
+      <c r="B25" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3003,9 +3007,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3013,9 +3017,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3023,9 +3027,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3033,9 +3037,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3043,8 +3047,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>82</v>
+      <c r="B30" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3052,9 +3056,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,9 +3066,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3072,15 +3076,15 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="23"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>94</v>
+      <c r="B34" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3089,7 +3093,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3098,7 +3102,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3107,7 +3111,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3116,7 +3120,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -3134,6 +3138,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>